--- a/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>8.060651166539718e-08</v>
+        <v>4.730442967045234e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.035289464247701e-07</v>
+        <v>1.306081750778829e-08</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.506479453209238e-07</v>
+        <v>1.961494499995102e-08</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.144922118544312e-07</v>
+        <v>2.046804388038812e-08</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>2.898588599460676e-07</v>
+        <v>2.124717633367164e-08</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>6.009410426030031e-07</v>
+        <v>2.245842687324035e-08</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.001449553007583e-06</v>
+        <v>2.033033917366035e-08</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>2.725696388938137e-06</v>
+        <v>2.231718833175224e-08</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>4.373888724554192e-06</v>
+        <v>1.657757837682568e-08</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>4.738564752433734e-06</v>
+        <v>2.085150283640551e-08</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>3.768963634888548e-06</v>
+        <v>1.619970824363126e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>1.928169442180208e-06</v>
+        <v>1.444373642337712e-08</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.47156788490149e-06</v>
+        <v>1.772607378459377e-08</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>1.859420206942545e-06</v>
+        <v>1.355588180723417e-08</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>8.183168532835134e-07</v>
+        <v>1.385203765048264e-08</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>5.892393688524463e-07</v>
+        <v>1.199584025511128e-08</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>3.379352018328199e-07</v>
+        <v>1.228185123578778e-08</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.743679506364192e-07</v>
+        <v>1.578939334890194e-08</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.333557496623325e-07</v>
+        <v>1.296545384674597e-08</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.339858164180175e-07</v>
+        <v>1.50740266345496e-08</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.589838773969905e-07</v>
+        <v>2.864879170992046e-08</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.010753624122192e-07</v>
+        <v>3.206088553451399e-08</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.930420156664444e-07</v>
+        <v>4.248753831275594e-08</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>4.08404652534925e-07</v>
+        <v>4.643487982780885e-08</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>6.16662518873363e-07</v>
+        <v>4.067364054041604e-08</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.473511679141055e-06</v>
+        <v>4.940896192677663e-08</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>3.65764267471182e-06</v>
+        <v>4.502299065714525e-08</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>3.547699375389576e-06</v>
+        <v>4.685954811644646e-08</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.900980992450447e-06</v>
+        <v>4.592345486362334e-08</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>9.767246584416531e-07</v>
+        <v>4.5743424000195e-08</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>4.824074281556494e-07</v>
+        <v>4.318694577306247e-08</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>4.910491818473298e-07</v>
+        <v>3.991458960691226e-08</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.396955467944039e-07</v>
+        <v>4.752811138739402e-08</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.969121733099076e-07</v>
+        <v>4.151851498314089e-08</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.891949404424359e-07</v>
+        <v>4.017443122130818e-08</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.133694500480311e-07</v>
+        <v>2.609906734720763e-08</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>4.499862696295646e-07</v>
+        <v>2.65878867567037e-08</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>2.933227382721759e-07</v>
+        <v>2.184946694793161e-08</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.289590554824974e-07</v>
+        <v>2.667889833838842e-08</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.094553754554605e-07</v>
+        <v>4.012616190121968e-08</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>9.675061002676201e-08</v>
+        <v>4.089673123458406e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.198025974361697e-07</v>
+        <v>3.807228660047437e-08</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>2.090473455697981e-07</v>
+        <v>3.406196128501767e-08</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>4.802175238219413e-07</v>
+        <v>3.560784786938303e-08</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>5.363773195801832e-07</v>
+        <v>3.420230550648899e-08</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>6.140806214133988e-07</v>
+        <v>2.205348212890764e-08</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>6.313591524600882e-07</v>
+        <v>2.813659466941716e-08</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>5.579644860213302e-07</v>
+        <v>4.067310793769622e-08</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>4.807900200953637e-07</v>
+        <v>5.771436989008401e-08</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>3.55348379713355e-07</v>
+        <v>7.773672029764779e-08</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>3.189091640906722e-07</v>
+        <v>1.606387200710791e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>2.988623742744192e-07</v>
+        <v>2.668212504448809e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>2.999656040730384e-07</v>
+        <v>7.250048085290104e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>2.891852274008617e-07</v>
+        <v>1.161426354886725e-06</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2.866287612714079e-07</v>
+        <v>1.254158379332517e-06</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>3.233426393533142e-07</v>
+        <v>9.948817687337661e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>4.210570259560462e-07</v>
+        <v>5.075980478499798e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>6.619932088289781e-07</v>
+        <v>3.87131144015905e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9.952162548318095e-07</v>
+        <v>4.888598432234108e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.290837800079886e-06</v>
+        <v>2.149900707984173e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.689515280986451e-06</v>
+        <v>1.546640514576438e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>2.081292229742875e-06</v>
+        <v>8.855502712973594e-08</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>2.234499936467739e-06</v>
+        <v>4.553762854717287e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>2.746045194331296e-06</v>
+        <v>3.480418971791436e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>3.31595483772114e-06</v>
+        <v>3.493498731849679e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>3.331086239855569e-06</v>
+        <v>4.138429549915556e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>3.695747183996196e-06</v>
+        <v>5.225118144849979e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>3.74324101917431e-06</v>
+        <v>5.009426576503107e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>3.698103858973044e-06</v>
+        <v>1.057821613079615e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>3.616282884390703e-06</v>
+        <v>1.594493081119004e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>3.611146118083365e-06</v>
+        <v>3.797962280455278e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>3.412466137004891e-06</v>
+        <v>9.395115429686869e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3.313325111381458e-06</v>
+        <v>9.082667544654109e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.67797842523759e-06</v>
+        <v>4.850844465779718e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>2.460759992734928e-06</v>
+        <v>2.484065681884351e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>2.052390838792695e-06</v>
+        <v>1.222745509483463e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.568593118730663e-06</v>
+        <v>1.240640621724031e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.419828755050027e-06</v>
+        <v>8.553321937573261e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.210311386459407e-06</v>
+        <v>7.452008225519529e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.146706949497796e-06</v>
+        <v>4.740246910552478e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.149360438302881e-06</v>
+        <v>5.33744276865167e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.133616975888215e-06</v>
+        <v>1.121912044506272e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.091123609027441e-06</v>
+        <v>7.264392893448894e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.093304616234149e-06</v>
+        <v>3.183168791151264e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.101204721790998e-06</v>
+        <v>2.692992761299593e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.225002304173982e-06</v>
+        <v>2.36459049373115e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.32838243678678e-06</v>
+        <v>2.908629828326907e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.390079861845232e-06</v>
+        <v>5.04178110247922e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.394046629980544e-06</v>
+        <v>1.156193874330239e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.360476514193603e-06</v>
+        <v>1.289821853534976e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.281143564310982e-06</v>
+        <v>1.471214731121389e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.089975026313016e-06</v>
+        <v>1.510112536798517e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>6.705766555561187e-07</v>
+        <v>1.332280293358866e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>5.606905508363012e-07</v>
+        <v>1.144225690087608e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>4.444591545053523e-07</v>
+        <v>8.429425429828776e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.37580019022537e-07</v>
+        <v>7.539687249807384e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.143722792348854e-07</v>
+        <v>7.06074531852375e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.072793022393192e-07</v>
+        <v>7.079498165898834e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>3.120031860303945e-07</v>
+        <v>6.814228090727451e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.958974327765298e-07</v>
+        <v>6.731988859239589e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.93706424257295e-07</v>
+        <v>7.54368473092309e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.94918689217691e-07</v>
+        <v>9.770520028033447e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.937127400842104e-07</v>
+        <v>1.524152714352291e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.882510468622078e-07</v>
+        <v>2.283747485312931e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.820535331003252e-07</v>
+        <v>2.952086908280728e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.814397807852904e-07</v>
+        <v>3.851258303072169e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>2.517715594214226e-07</v>
+        <v>4.734578609496657e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>2.555526460053368e-07</v>
+        <v>5.076288210327877e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>2.567857772496023e-07</v>
+        <v>6.224486261747237e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.546278092803822e-07</v>
+        <v>7.491822828469463e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>2.22816286220389e-07</v>
+        <v>7.517222051591161e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.919465375807995e-07</v>
+        <v>8.322202120312387e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.809870075340524e-07</v>
+        <v>8.414866246546953e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.760807429791238e-07</v>
+        <v>8.305454313798266e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.167493269556147e-07</v>
+        <v>8.113289160984534e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>3.726725442394297e-07</v>
+        <v>8.095931535311769e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.558709271086555e-07</v>
+        <v>7.643500118704919e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>4.822165848896662e-07</v>
+        <v>7.416930230538434e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>4.901880667359368e-07</v>
+        <v>5.974674345210533e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>4.975837026227787e-07</v>
+        <v>5.4802933675511e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>5.00246540368782e-07</v>
+        <v>4.563852003439554e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>4.787223198367143e-07</v>
+        <v>3.476519499813691e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.375097485094122e-07</v>
+        <v>3.141225818881957e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>2.697305134626747e-07</v>
+        <v>2.67338316619803e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>1.697824223074478e-07</v>
+        <v>2.530454398801615e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.493050607698783e-07</v>
+        <v>2.536208874294728e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.667049920966995e-07</v>
+        <v>2.499842176213928e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.302816564046912e-07</v>
+        <v>2.402162391016295e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.556221766473842e-07</v>
+        <v>2.404544585542497e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>3.836813295105432e-07</v>
+        <v>2.420095528594893e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>5.02487742009427e-07</v>
+        <v>2.689769362994922e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>5.188352104797572e-07</v>
+        <v>2.913744930877691e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>4.953034582929152e-07</v>
+        <v>3.046232951472196e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.435955070653794e-07</v>
+        <v>3.051611958673409e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.392438078907881e-07</v>
+        <v>2.975349654536675e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>3.904264562764208e-07</v>
+        <v>2.797036229319079e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>3.29694058400393e-07</v>
+        <v>2.37582723202545e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.993166616034737e-07</v>
+        <v>1.456798641777081e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.930633338949108e-07</v>
+        <v>1.216043995076943e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>2.881077106046541e-07</v>
+        <v>9.624965148529012e-08</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.841632057118138e-07</v>
+        <v>7.286926679895898e-08</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>2.655112839725744e-07</v>
+        <v>6.772918846266843e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.955611772237239e-07</v>
+        <v>6.611915230469161e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.385088529153471e-07</v>
+        <v>6.706791395055315e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>3.814450521885817e-07</v>
+        <v>6.356088549897941e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>4.288242276849306e-07</v>
+        <v>6.306721143097068e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>4.935307408967276e-07</v>
+        <v>6.331827199933276e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>5.530969452433681e-07</v>
+        <v>6.305349782206212e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>5.273776068155647e-07</v>
+        <v>6.183644277812105e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>5.286004099958183e-07</v>
+        <v>6.046718391799466e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>4.713295197860119e-07</v>
+        <v>6.029476791875829e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>4.628915761601693e-07</v>
+        <v>5.390509579010785e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>4.082929739538839e-07</v>
+        <v>5.469176161752246e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.907050191652072e-07</v>
+        <v>5.49427196502467e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>3.805665364383305e-07</v>
+        <v>5.442514747209626e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>4.82322729134029e-07</v>
+        <v>4.754728851452351e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>4.207255290494608e-07</v>
+        <v>4.089241016040419e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>4.425628319611258e-07</v>
+        <v>3.849684500851117e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>4.001951986443557e-07</v>
+        <v>3.743561015402478e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>3.743571387695139e-07</v>
+        <v>4.60227930900258e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.544716556350498e-07</v>
+        <v>7.899721851455646e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>3.323750637787927e-07</v>
+        <v>9.654438438654655e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.06417797496671e-07</v>
+        <v>1.020191868850087e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.097132074197532e-07</v>
+        <v>1.035938513990223e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.58066518350071e-07</v>
+        <v>1.050863288845857e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>6.488976184953949e-08</v>
+        <v>1.056146943897516e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.005420424941873e-08</v>
+        <v>1.008673040735421e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>5.649281312830851e-08</v>
+        <v>9.211250955153411e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>3.510636322620317e-08</v>
+        <v>5.658762876050889e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>2.845009525227379e-08</v>
+        <v>3.538600395037056e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>2.420333175164237e-08</v>
+        <v>3.091028765374215e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.486166654449511e-08</v>
+        <v>3.428421678996659e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>3.426933139686711e-08</v>
+        <v>4.721064384462558e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>6.305638590855108e-08</v>
+        <v>5.234388493891868e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>6.930703973734968e-08</v>
+        <v>7.838247786675337e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.971615169713113e-08</v>
+        <v>1.023198126030245e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.295386249741373e-08</v>
+        <v>1.054699083780056e-07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.00521373362616e-07</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.98786110000354e-08</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.899512401128078e-08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.897858549128457e-08</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.657946943820552e-08</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.034052842607054e-08</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.902540565357848e-08</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.79362754657355e-08</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.710419822427322e-08</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.330890391773635e-08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.922716055377932e-08</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.772878483331916e-08</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.620200664490065e-08</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.551675472221379e-08</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.826166584117937e-08</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.099313652946083e-07</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.048184474263192e-07</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.049025956092984e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9.337352138307172e-08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9.169612575440821e-08</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.077288521426859e-08</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7.725959181381508e-08</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.524677484960803e-08</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9.525654806270658e-08</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8.30486452467561e-08</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8.72346058357484e-08</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7.883290678800967e-08</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7.369276437795411e-08</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.973266736988947e-08</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.533825346237106e-08</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.019580498850118e-08</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.081068466056041e-08</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.098258931640663e-08</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.26967181401641e-08</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.829886693279076e-09</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.104180390506391e-08</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.860530751802777e-09</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.555880482755342e-09</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.720436500761945e-09</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4.8436538405889e-09</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.653642753727078e-09</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.219958061006714e-08</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.336322772272692e-08</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.14718387866511e-08</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.015977077652876e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>4.730442967045234e-09</v>
+        <v>8.060651166539718e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.306081750778829e-08</v>
+        <v>1.035289464247701e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.961494499995102e-08</v>
+        <v>1.506479453209238e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.046804388038812e-08</v>
+        <v>2.144922118544312e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>2.124717633367164e-08</v>
+        <v>2.898588599460676e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.245842687324035e-08</v>
+        <v>6.009410426030031e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>2.033033917366035e-08</v>
+        <v>1.001449553007583e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.231718833175224e-08</v>
+        <v>2.725696388938137e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.657757837682568e-08</v>
+        <v>4.373888724554192e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>2.085150283640551e-08</v>
+        <v>4.738564752433734e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.619970824363126e-08</v>
+        <v>3.768963634888548e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444373642337712e-08</v>
+        <v>1.928169442180208e-06</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.772607378459377e-08</v>
+        <v>1.47156788490149e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.355588180723417e-08</v>
+        <v>1.859420206942545e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.385203765048264e-08</v>
+        <v>8.183168532835134e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.199584025511128e-08</v>
+        <v>5.892393688524463e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.228185123578778e-08</v>
+        <v>3.379352018328199e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.578939334890194e-08</v>
+        <v>1.743679506364192e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.296545384674597e-08</v>
+        <v>1.333557496623325e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.50740266345496e-08</v>
+        <v>1.339858164180175e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.864879170992046e-08</v>
+        <v>1.589838773969905e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>3.206088553451399e-08</v>
+        <v>2.010753624122192e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>4.248753831275594e-08</v>
+        <v>1.930420156664444e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>4.643487982780885e-08</v>
+        <v>4.08404652534925e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>4.067364054041604e-08</v>
+        <v>6.16662518873363e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>4.940896192677663e-08</v>
+        <v>1.473511679141055e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>4.502299065714525e-08</v>
+        <v>3.65764267471182e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>4.685954811644646e-08</v>
+        <v>3.547699375389576e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>4.592345486362334e-08</v>
+        <v>1.900980992450447e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>4.5743424000195e-08</v>
+        <v>9.767246584416531e-07</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>4.318694577306247e-08</v>
+        <v>4.824074281556494e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>3.991458960691226e-08</v>
+        <v>4.910491818473298e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>4.752811138739402e-08</v>
+        <v>3.396955467944039e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>4.151851498314089e-08</v>
+        <v>2.969121733099076e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>4.017443122130818e-08</v>
+        <v>1.891949404424359e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>2.609906734720763e-08</v>
+        <v>2.133694500480311e-07</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>2.65878867567037e-08</v>
+        <v>4.499862696295646e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.184946694793161e-08</v>
+        <v>2.933227382721759e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>2.667889833838842e-08</v>
+        <v>1.289590554824974e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>4.012616190121968e-08</v>
+        <v>1.094553754554605e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>4.089673123458406e-08</v>
+        <v>9.675061002676201e-08</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>3.807228660047437e-08</v>
+        <v>1.198025974361697e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>3.406196128501767e-08</v>
+        <v>2.090473455697981e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>3.560784786938303e-08</v>
+        <v>4.802175238219413e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>3.420230550648899e-08</v>
+        <v>5.363773195801832e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>2.205348212890764e-08</v>
+        <v>6.140806214133988e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>2.813659466941716e-08</v>
+        <v>6.313591524600882e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>4.067310793769622e-08</v>
+        <v>5.579644860213302e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>5.771436989008401e-08</v>
+        <v>4.807900200953637e-07</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>7.773672029764779e-08</v>
+        <v>3.55348379713355e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.606387200710791e-07</v>
+        <v>3.189091640906722e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>2.668212504448809e-07</v>
+        <v>2.988623742744192e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>7.250048085290104e-07</v>
+        <v>2.999656040730384e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.161426354886725e-06</v>
+        <v>2.891852274008617e-07</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.254158379332517e-06</v>
+        <v>2.866287612714079e-07</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>9.948817687337661e-07</v>
+        <v>3.233426393533142e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>5.075980478499798e-07</v>
+        <v>4.210570259560462e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>3.87131144015905e-07</v>
+        <v>6.619932088289781e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>4.888598432234108e-07</v>
+        <v>9.952162548318095e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.149900707984173e-07</v>
+        <v>1.290837800079886e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.546640514576438e-07</v>
+        <v>1.689515280986451e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>8.855502712973594e-08</v>
+        <v>2.081292229742875e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>4.553762854717287e-08</v>
+        <v>2.234499936467739e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>3.480418971791436e-08</v>
+        <v>2.746045194331296e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.493498731849679e-08</v>
+        <v>3.31595483772114e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.138429549915556e-08</v>
+        <v>3.331086239855569e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>5.225118144849979e-08</v>
+        <v>3.695747183996196e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>5.009426576503107e-08</v>
+        <v>3.74324101917431e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.057821613079615e-07</v>
+        <v>3.698103858973044e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.594493081119004e-07</v>
+        <v>3.616282884390703e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>3.797962280455278e-07</v>
+        <v>3.611146118083365e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>9.395115429686869e-07</v>
+        <v>3.412466137004891e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>9.082667544654109e-07</v>
+        <v>3.313325111381458e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>4.850844465779718e-07</v>
+        <v>2.67797842523759e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.484065681884351e-07</v>
+        <v>2.460759992734928e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.222745509483463e-07</v>
+        <v>2.052390838792695e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.240640621724031e-07</v>
+        <v>1.568593118730663e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>8.553321937573261e-08</v>
+        <v>1.419828755050027e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>7.452008225519529e-08</v>
+        <v>1.210311386459407e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>4.740246910552478e-08</v>
+        <v>1.146706949497796e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>5.33744276865167e-08</v>
+        <v>1.149360438302881e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.121912044506272e-07</v>
+        <v>1.133616975888215e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>7.264392893448894e-08</v>
+        <v>1.091123609027441e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.183168791151264e-08</v>
+        <v>1.093304616234149e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.692992761299593e-08</v>
+        <v>1.101204721790998e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>2.36459049373115e-08</v>
+        <v>1.225002304173982e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.908629828326907e-08</v>
+        <v>1.32838243678678e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>5.04178110247922e-08</v>
+        <v>1.390079861845232e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.156193874330239e-07</v>
+        <v>1.394046629980544e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.289821853534976e-07</v>
+        <v>1.360476514193603e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>1.471214731121389e-07</v>
+        <v>1.281143564310982e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>1.510112536798517e-07</v>
+        <v>1.089975026313016e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>1.332280293358866e-07</v>
+        <v>6.705766555561187e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>1.144225690087608e-07</v>
+        <v>5.606905508363012e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>8.429425429828776e-08</v>
+        <v>4.444591545053523e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>7.539687249807384e-08</v>
+        <v>3.37580019022537e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>7.06074531852375e-08</v>
+        <v>3.143722792348854e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>7.079498165898834e-08</v>
+        <v>3.072793022393192e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>6.814228090727451e-08</v>
+        <v>3.120031860303945e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>6.731988859239589e-08</v>
+        <v>2.958974327765298e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>7.54368473092309e-08</v>
+        <v>2.93706424257295e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>9.770520028033447e-08</v>
+        <v>2.94918689217691e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.524152714352291e-07</v>
+        <v>2.937127400842104e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>2.283747485312931e-07</v>
+        <v>2.882510468622078e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>2.952086908280728e-07</v>
+        <v>2.820535331003252e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>3.851258303072169e-07</v>
+        <v>2.814397807852904e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>4.734578609496657e-07</v>
+        <v>2.517715594214226e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>5.076288210327877e-07</v>
+        <v>2.555526460053368e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>6.224486261747237e-07</v>
+        <v>2.567857772496023e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>7.491822828469463e-07</v>
+        <v>2.546278092803822e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>7.517222051591161e-07</v>
+        <v>2.22816286220389e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>8.322202120312387e-07</v>
+        <v>1.919465375807995e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>8.414866246546953e-07</v>
+        <v>1.809870075340524e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>8.305454313798266e-07</v>
+        <v>1.760807429791238e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>8.113289160984534e-07</v>
+        <v>2.167493269556147e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>8.095931535311769e-07</v>
+        <v>3.726725442394297e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>7.643500118704919e-07</v>
+        <v>4.558709271086555e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>7.416930230538434e-07</v>
+        <v>4.822165848896662e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>5.974674345210533e-07</v>
+        <v>4.901880667359368e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>5.4802933675511e-07</v>
+        <v>4.975837026227787e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>4.563852003439554e-07</v>
+        <v>5.00246540368782e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.476519499813691e-07</v>
+        <v>4.787223198367143e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>3.141225818881957e-07</v>
+        <v>4.375097485094122e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.67338316619803e-07</v>
+        <v>2.697305134626747e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>2.530454398801615e-07</v>
+        <v>1.697824223074478e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.536208874294728e-07</v>
+        <v>1.493050607698783e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>2.499842176213928e-07</v>
+        <v>1.667049920966995e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>2.402162391016295e-07</v>
+        <v>2.302816564046912e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>2.404544585542497e-07</v>
+        <v>2.556221766473842e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>2.420095528594893e-07</v>
+        <v>3.836813295105432e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>2.689769362994922e-07</v>
+        <v>5.02487742009427e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.913744930877691e-07</v>
+        <v>5.188352104797572e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>3.046232951472196e-07</v>
+        <v>4.953034582929152e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>3.051611958673409e-07</v>
+        <v>4.435955070653794e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.975349654536675e-07</v>
+        <v>4.392438078907881e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>2.797036229319079e-07</v>
+        <v>3.904264562764208e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>2.37582723202545e-07</v>
+        <v>3.29694058400393e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.456798641777081e-07</v>
+        <v>2.993166616034737e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.216043995076943e-07</v>
+        <v>2.930633338949108e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>9.624965148529012e-08</v>
+        <v>2.881077106046541e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>7.286926679895898e-08</v>
+        <v>2.841632057118138e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>6.772918846266843e-08</v>
+        <v>2.655112839725744e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>6.611915230469161e-08</v>
+        <v>2.955611772237239e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>6.706791395055315e-08</v>
+        <v>3.385088529153471e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>6.356088549897941e-08</v>
+        <v>3.814450521885817e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>6.306721143097068e-08</v>
+        <v>4.288242276849306e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>6.331827199933276e-08</v>
+        <v>4.935307408967276e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>6.305349782206212e-08</v>
+        <v>5.530969452433681e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>6.183644277812105e-08</v>
+        <v>5.273776068155647e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>6.046718391799466e-08</v>
+        <v>5.286004099958183e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>6.029476791875829e-08</v>
+        <v>4.713295197860119e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>5.390509579010785e-08</v>
+        <v>4.628915761601693e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>5.469176161752246e-08</v>
+        <v>4.082929739538839e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>5.49427196502467e-08</v>
+        <v>3.907050191652072e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>5.442514747209626e-08</v>
+        <v>3.805665364383305e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>4.754728851452351e-08</v>
+        <v>4.82322729134029e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>4.089241016040419e-08</v>
+        <v>4.207255290494608e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>3.849684500851117e-08</v>
+        <v>4.425628319611258e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>3.743561015402478e-08</v>
+        <v>4.001951986443557e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>4.60227930900258e-08</v>
+        <v>3.743571387695139e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>7.899721851455646e-08</v>
+        <v>3.544716556350498e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>9.654438438654655e-08</v>
+        <v>3.323750637787927e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>1.020191868850087e-07</v>
+        <v>3.06417797496671e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>1.035938513990223e-07</v>
+        <v>3.097132074197532e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>1.050863288845857e-07</v>
+        <v>1.58066518350071e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.056146943897516e-07</v>
+        <v>6.488976184953949e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.008673040735421e-07</v>
+        <v>4.005420424941873e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>9.211250955153411e-08</v>
+        <v>5.649281312830851e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>5.658762876050889e-08</v>
+        <v>3.510636322620317e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>3.538600395037056e-08</v>
+        <v>2.845009525227379e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>3.091028765374215e-08</v>
+        <v>2.420333175164237e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>3.428421678996659e-08</v>
+        <v>2.486166654449511e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>4.721064384462558e-08</v>
+        <v>3.426933139686711e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>5.234388493891868e-08</v>
+        <v>6.305638590855108e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>7.838247786675337e-08</v>
+        <v>6.930703973734968e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.023198126030245e-07</v>
+        <v>5.971615169713113e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.054699083780056e-07</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.00521373362616e-07</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.98786110000354e-08</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.899512401128078e-08</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.897858549128457e-08</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.657946943820552e-08</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.034052842607054e-08</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.902540565357848e-08</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.79362754657355e-08</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.710419822427322e-08</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.330890391773635e-08</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.922716055377932e-08</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.772878483331916e-08</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.620200664490065e-08</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8.551675472221379e-08</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9.826166584117937e-08</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.099313652946083e-07</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.048184474263192e-07</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.049025956092984e-07</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9.337352138307172e-08</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9.169612575440821e-08</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>8.077288521426859e-08</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>7.725959181381508e-08</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7.524677484960803e-08</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>9.525654806270658e-08</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>8.30486452467561e-08</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>8.72346058357484e-08</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>7.883290678800967e-08</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>7.369276437795411e-08</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6.973266736988947e-08</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.533825346237106e-08</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.019580498850118e-08</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.081068466056041e-08</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.098258931640663e-08</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.26967181401641e-08</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>7.829886693279076e-09</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.104180390506391e-08</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.860530751802777e-09</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.555880482755342e-09</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4.720436500761945e-09</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.8436538405889e-09</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.653642753727078e-09</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.219958061006714e-08</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.336322772272692e-08</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.14718387866511e-08</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.015977077652876e-08</v>
+        <v>5.295386249741373e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>8.060651166539718e-08</v>
+        <v>7404144198.798032</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.035289464247701e-07</v>
+        <v>12730987633.40464</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.506479453209238e-07</v>
+        <v>17824544744.55607</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.144922118544312e-07</v>
+        <v>17768632951.46356</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>2.898588599460676e-07</v>
+        <v>21828753138.02928</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>6.009410426030031e-07</v>
+        <v>20824092223.6772</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.001449553007583e-06</v>
+        <v>20061864558.13313</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>2.725696388938137e-06</v>
+        <v>21819445654.63142</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>4.373888724554192e-06</v>
+        <v>15468624183.65967</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>4.738564752433734e-06</v>
+        <v>19516509130.54414</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>3.768963634888548e-06</v>
+        <v>21672341869.68989</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>1.928169442180208e-06</v>
+        <v>13874706417.08036</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.47156788490149e-06</v>
+        <v>16301839625.46033</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>1.859420206942545e-06</v>
+        <v>12344274862.7639</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>8.183168532835134e-07</v>
+        <v>13300087285.56636</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>5.892393688524463e-07</v>
+        <v>11244589558.55508</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>3.379352018328199e-07</v>
+        <v>11629517943.88806</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.743679506364192e-07</v>
+        <v>14719473676.47337</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.333557496623325e-07</v>
+        <v>12151385787.88409</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.339858164180175e-07</v>
+        <v>14476628906.30227</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.589838773969905e-07</v>
+        <v>26039781529.07384</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.010753624122192e-07</v>
+        <v>30349793436.15277</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.930420156664444e-07</v>
+        <v>42311525562.07452</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>4.08404652534925e-07</v>
+        <v>44796087518.50053</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>6.16662518873363e-07</v>
+        <v>42156237481.5129</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.473511679141055e-06</v>
+        <v>46327718561.03062</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>3.65764267471182e-06</v>
+        <v>45234770676.13332</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>3.547699375389576e-06</v>
+        <v>44788321297.81331</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.900980992450447e-06</v>
+        <v>43947436244.65936</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>9.767246584416531e-07</v>
+        <v>44528067131.9219</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>4.824074281556494e-07</v>
+        <v>41656143842.00587</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>4.910491818473298e-07</v>
+        <v>39221911903.69704</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.396955467944039e-07</v>
+        <v>44273343236.29788</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.969121733099076e-07</v>
+        <v>39314900886.45445</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.891949404424359e-07</v>
+        <v>37549803530.53613</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.133694500480311e-07</v>
+        <v>25257536004.47447</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4.499862696295646e-07</v>
+        <v>25044236074.07478</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>2.933227382721759e-07</v>
+        <v>23605664454.32365</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.289590554824974e-07</v>
+        <v>25222248789.25362</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.094553754554605e-07</v>
+        <v>37595670307.38461</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>9.675061002676201e-08</v>
+        <v>38622777724.7979</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.198025974361697e-07</v>
+        <v>35417590593.14388</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>2.090473455697981e-07</v>
+        <v>31831264718.09393</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>4.802175238219413e-07</v>
+        <v>33087432144.79134</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>5.363773195801832e-07</v>
+        <v>31985229688.83161</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>6.140806214133988e-07</v>
+        <v>20449752475.71156</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>6.313591524600882e-07</v>
+        <v>26300970795.56391</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>5.579644860213302e-07</v>
+        <v>37834556825.4414</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>4.807900200953637e-07</v>
+        <v>54038054609.40463</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>3.55348379713355e-07</v>
+        <v>72659343307.21281</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>3.189091640906722e-07</v>
+        <v>149536057179.7753</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>2.988623742744192e-07</v>
+        <v>248390875463.7811</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>2.999656040730384e-07</v>
+        <v>676998667432.3285</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>2.891852274008617e-07</v>
+        <v>1083525673358.049</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>2.866287612714079e-07</v>
+        <v>1168309199204.731</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>3.233426393533142e-07</v>
+        <v>927278521936.2852</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>4.210570259560462e-07</v>
+        <v>474145625551.3867</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>6.619932088289781e-07</v>
+        <v>361934711403.4922</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.952162548318095e-07</v>
+        <v>456145884004.2094</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.290837800079886e-06</v>
+        <v>200358731627.5341</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.689515280986451e-06</v>
+        <v>143771810219.4885</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2.081292229742875e-06</v>
+        <v>82150388307.54108</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>2.234499936467739e-06</v>
+        <v>42485386528.63834</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>2.746045194331296e-06</v>
+        <v>32525544881.74707</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>3.31595483772114e-06</v>
+        <v>32894266075.1474</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>3.331086239855569e-06</v>
+        <v>38538869391.56525</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>3.695747183996196e-06</v>
+        <v>49853834117.96706</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>3.74324101917431e-06</v>
+        <v>47944989582.26121</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>3.698103858973044e-06</v>
+        <v>96565805696.54927</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>3.616282884390703e-06</v>
+        <v>150721649738.2142</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>3.611146118083365e-06</v>
+        <v>354481611503.3729</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>3.412466137004891e-06</v>
+        <v>876602679609.2085</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>3.313325111381458e-06</v>
+        <v>847894378126.2231</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>2.67797842523759e-06</v>
+        <v>452338555714.7117</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>2.460759992734928e-06</v>
+        <v>232891906385.4181</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>2.052390838792695e-06</v>
+        <v>114042330736.3448</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.568593118730663e-06</v>
+        <v>116151785892.3988</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.419828755050027e-06</v>
+        <v>81398077227.12608</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.210311386459407e-06</v>
+        <v>69480347470.57449</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.146706949497796e-06</v>
+        <v>44114876343.1843</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.149360438302881e-06</v>
+        <v>49725926220.12559</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.133616975888215e-06</v>
+        <v>104449454894.1678</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.091123609027441e-06</v>
+        <v>67604506173.41576</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.093304616234149e-06</v>
+        <v>29581144251.34811</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.101204721790998e-06</v>
+        <v>25080073123.61285</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.225002304173982e-06</v>
+        <v>22063674780.97319</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.32838243678678e-06</v>
+        <v>26912894858.06851</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.390079861845232e-06</v>
+        <v>47011936361.46512</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.394046629980544e-06</v>
+        <v>107632436581.1378</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.360476514193603e-06</v>
+        <v>119949075378.7516</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.281143564310982e-06</v>
+        <v>137413387837.9527</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.089975026313016e-06</v>
+        <v>140473492032.2432</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>6.705766555561187e-07</v>
+        <v>123670610769.6373</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>5.606905508363012e-07</v>
+        <v>106764708026.0291</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>4.444591545053523e-07</v>
+        <v>78504615193.83556</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.37580019022537e-07</v>
+        <v>70403114184.39021</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.143722792348854e-07</v>
+        <v>65973802752.47809</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.072793022393192e-07</v>
+        <v>65502694349.925</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>3.120031860303945e-07</v>
+        <v>63662776804.27482</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.958974327765298e-07</v>
+        <v>62673019996.9542</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.93706424257295e-07</v>
+        <v>70294270916.46329</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.94918689217691e-07</v>
+        <v>91190555977.20209</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.937127400842104e-07</v>
+        <v>142047470549.3764</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.882510468622078e-07</v>
+        <v>212693729105.8789</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.820535331003252e-07</v>
+        <v>275197535954.2867</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.814397807852904e-07</v>
+        <v>358560431642.2328</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>2.517715594214226e-07</v>
+        <v>441284173579.9944</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>2.555526460053368e-07</v>
+        <v>472974037237.6387</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>2.567857772496023e-07</v>
+        <v>580694738883.6655</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>2.546278092803822e-07</v>
+        <v>698177097306.8661</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>2.22816286220389e-07</v>
+        <v>700485924110.6057</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.919465375807995e-07</v>
+        <v>774995947486.2822</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.809870075340524e-07</v>
+        <v>783842348364.2273</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.760807429791238e-07</v>
+        <v>773848164844.0759</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.167493269556147e-07</v>
+        <v>756193822602.0458</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>3.726725442394297e-07</v>
+        <v>753305776026.4177</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.558709271086555e-07</v>
+        <v>711970117821.9824</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>4.822165848896662e-07</v>
+        <v>691091080335.7454</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>4.901880667359368e-07</v>
+        <v>556577715030.9595</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>4.975837026227787e-07</v>
+        <v>510337629130.8293</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>5.00246540368782e-07</v>
+        <v>425676356982.8638</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>4.787223198367143e-07</v>
+        <v>323858160153.3287</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>4.375097485094122e-07</v>
+        <v>292569834442.4172</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>2.697305134626747e-07</v>
+        <v>249403279183.7142</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>1.697824223074478e-07</v>
+        <v>235802631014.9722</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.493050607698783e-07</v>
+        <v>236505090439.8461</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.667049920966995e-07</v>
+        <v>233463502087.7335</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.302816564046912e-07</v>
+        <v>223899633824.5213</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.556221766473842e-07</v>
+        <v>224437453387.6106</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>3.836813295105432e-07</v>
+        <v>225312776382.8836</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>5.02487742009427e-07</v>
+        <v>250666828508.7705</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>5.188352104797572e-07</v>
+        <v>271297020271.7585</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>4.953034582929152e-07</v>
+        <v>283618869881.5864</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.435955070653794e-07</v>
+        <v>284670964914.0684</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.392438078907881e-07</v>
+        <v>276955233103.7697</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>3.904264562764208e-07</v>
+        <v>260472546360.8269</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>3.29694058400393e-07</v>
+        <v>221501992305.5362</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>2.993166616034737e-07</v>
+        <v>135653047508.3928</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.930633338949108e-07</v>
+        <v>112965493267.6056</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>2.881077106046541e-07</v>
+        <v>89808591064.61519</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.841632057118138e-07</v>
+        <v>68009321242.23465</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>2.655112839725744e-07</v>
+        <v>62988588737.08748</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.955611772237239e-07</v>
+        <v>61273364006.83665</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>3.385088529153471e-07</v>
+        <v>62427698756.94528</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>3.814450521885817e-07</v>
+        <v>59229332371.53128</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>4.288242276849306e-07</v>
+        <v>59064908268.15478</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>4.935307408967276e-07</v>
+        <v>59098165582.33377</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>5.530969452433681e-07</v>
+        <v>58806500939.56414</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>5.273776068155647e-07</v>
+        <v>57572023378.45418</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>5.286004099958183e-07</v>
+        <v>56080590144.09398</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>4.713295197860119e-07</v>
+        <v>55939221835.51527</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>4.628915761601693e-07</v>
+        <v>50454075376.98595</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>4.082929739538839e-07</v>
+        <v>50910355568.6124</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.907050191652072e-07</v>
+        <v>51326530016.87724</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>3.805665364383305e-07</v>
+        <v>50703078333.49987</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>4.82322729134029e-07</v>
+        <v>44340533815.94331</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>4.207255290494608e-07</v>
+        <v>38347628828.58015</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>4.425628319611258e-07</v>
+        <v>35823123091.42191</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>4.001951986443557e-07</v>
+        <v>34836864700.10063</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>3.743571387695139e-07</v>
+        <v>42779964542.29092</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>3.544716556350498e-07</v>
+        <v>74060080312.2112</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>3.323750637787927e-07</v>
+        <v>89745892124.40849</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.06417797496671e-07</v>
+        <v>95005091935.25822</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.097132074197532e-07</v>
+        <v>96276582037.87628</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.58066518350071e-07</v>
+        <v>97753511729.91971</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>6.488976184953949e-08</v>
+        <v>98393917446.35406</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.005420424941873e-08</v>
+        <v>93850571065.66438</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>5.649281312830851e-08</v>
+        <v>85952538064.95496</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>3.510636322620317e-08</v>
+        <v>52712899036.78031</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>2.845009525227379e-08</v>
+        <v>32939533864.59526</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>2.420333175164237e-08</v>
+        <v>28824144289.37368</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.486166654449511e-08</v>
+        <v>31977246369.28562</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>3.426933139686711e-08</v>
+        <v>44095597742.2452</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>6.305638590855108e-08</v>
+        <v>48640609886.03001</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>6.930703973734968e-08</v>
+        <v>72791975463.17711</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.971615169713113e-08</v>
+        <v>95854505474.85622</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.295386249741373e-08</v>
+        <v>98161398891.09686</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>93609780104.98596</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>83537963199.76138</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>82918015026.65334</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>73587935612.12198</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>61970606015.18727</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>56375874964.33156</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>55418757490.20404</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>54144842966.69375</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>53320171622.0001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>49883572382.15981</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>55317523354.82131</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>63278956708.52769</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>71046135159.74606</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>79519290815.90012</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>91459839450.2811</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>102488327853.3459</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>97689750829.85255</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>97497260448.64827</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>87030536337.08554</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>85446598605.57495</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>75388226293.94931</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>72084533877.98448</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>70221493538.29053</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>88772039385.65994</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>77329055858.33972</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>81059588933.81554</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>73481552905.20966</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>68699391339.37943</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>64962076328.34392</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>60734999130.72591</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>56060843021.925</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>56776776068.36055</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>28953734581.33264</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11815865765.79756</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7286352768.423459</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>10287880917.16978</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6389589011.373932</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5165115862.701073</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4358336177.489202</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4418576292.522637</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6212681503.16912</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11345057084.73098</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12432138975.77111</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>10677178675.54107</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9445173642.337234</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>7404144198.798032</v>
+        <v>9.073843620243102e-08</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>12730987633.40464</v>
+        <v>1.127774502455092e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>17824544744.55607</v>
+        <v>1.629605093490317e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>17768632951.46356</v>
+        <v>2.353588672026179e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>21828753138.02928</v>
+        <v>3.175320320503661e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>20824092223.6772</v>
+        <v>6.40321272862968e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>20061864558.13313</v>
+        <v>1.068688636338477e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>21819445654.63142</v>
+        <v>2.859350192885649e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>15468624183.65967</v>
+        <v>4.572058700699385e-06</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>19516509130.54414</v>
+        <v>4.980387971345341e-06</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>21672341869.68989</v>
+        <v>3.94741089801736e-06</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>13874706417.08036</v>
+        <v>2.016096690128323e-06</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>16301839625.46033</v>
+        <v>1.552088260335602e-06</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>12344274862.7639</v>
+        <v>1.957731077572197e-06</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>13300087285.56636</v>
+        <v>8.731602010120857e-07</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>11244589558.55508</v>
+        <v>6.171952098212606e-07</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>11629517943.88806</v>
+        <v>3.585543209573453e-07</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>14719473676.47337</v>
+        <v>1.924354763785847e-07</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>12151385787.88409</v>
+        <v>1.468213103652683e-07</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>14476628906.30227</v>
+        <v>1.45847743241046e-07</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>26039781529.07384</v>
+        <v>1.78241903893095e-07</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>30349793436.15277</v>
+        <v>2.223433140043855e-07</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>42311525562.07452</v>
+        <v>2.131512856467827e-07</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>44796087518.50053</v>
+        <v>4.365387907601874e-07</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>42156237481.5129</v>
+        <v>6.756920593937733e-07</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>46327718561.03062</v>
+        <v>1.549745379594318e-06</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>45234770676.13332</v>
+        <v>3.877825984362763e-06</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>44788321297.81331</v>
+        <v>3.779171288402804e-06</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>43947436244.65936</v>
+        <v>1.987087995782735e-06</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>44528067131.9219</v>
+        <v>1.039155889682173e-06</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>41656143842.00587</v>
+        <v>5.164496639175327e-07</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>39221911903.69704</v>
+        <v>5.196209532680193e-07</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>44273343236.29788</v>
+        <v>3.52073621147321e-07</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>39314900886.45445</v>
+        <v>3.237339868438181e-07</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>37549803530.53613</v>
+        <v>1.934817834772086e-07</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>25257536004.47447</v>
+        <v>2.316157220089263e-07</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>25044236074.07478</v>
+        <v>4.860760977352789e-07</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>23605664454.32365</v>
+        <v>3.155074065391447e-07</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>25222248789.25362</v>
+        <v>1.396176138297411e-07</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>37595670307.38461</v>
+        <v>1.233698544023379e-07</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>38622777724.7979</v>
+        <v>1.073166195590359e-07</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>35417590593.14388</v>
+        <v>1.272312140325559e-07</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>31831264718.09393</v>
+        <v>2.288200373287016e-07</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>33087432144.79134</v>
+        <v>5.131636388377139e-07</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>31985229688.83161</v>
+        <v>5.739625054584064e-07</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>20449752475.71156</v>
+        <v>6.593586819345292e-07</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>26300970795.56391</v>
+        <v>6.706822856323253e-07</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>37834556825.4414</v>
+        <v>5.874107043468974e-07</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>54038054609.40463</v>
+        <v>5.165066697191281e-07</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>72659343307.21281</v>
+        <v>3.841462311912637e-07</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>149536057179.7753</v>
+        <v>3.498321242309637e-07</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>248390875463.7811</v>
+        <v>3.24565744900581e-07</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>676998667432.3285</v>
+        <v>3.224093227345935e-07</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1083525673358.049</v>
+        <v>3.128970007873454e-07</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1168309199204.731</v>
+        <v>3.0824574401446e-07</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>927278521936.2852</v>
+        <v>3.476992270652989e-07</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>474145625551.3867</v>
+        <v>4.540609084735808e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>361934711403.4922</v>
+        <v>7.082092943428151e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>456145884004.2094</v>
+        <v>1.047150169247417e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>200358731627.5341</v>
+        <v>1.36388189047721e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>143771810219.4885</v>
+        <v>1.777624124370649e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>82150388307.54108</v>
+        <v>2.187624707470044e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>42485386528.63834</v>
+        <v>2.344728577201943e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>32525544881.74707</v>
+        <v>2.887571203525774e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>32894266075.1474</v>
+        <v>3.473840555630577e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>38538869391.56525</v>
+        <v>3.495618425035636e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>49853834117.96706</v>
+        <v>3.866624603241221e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>47944989582.26121</v>
+        <v>3.92041281182273e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>96565805696.54927</v>
+        <v>3.877447230463429e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>150721649738.2142</v>
+        <v>3.79084552382932e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>354481611503.3729</v>
+        <v>3.77414177494157e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>876602679609.2085</v>
+        <v>3.568034515025513e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>847894378126.2231</v>
+        <v>3.472534032965621e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>452338555714.7117</v>
+        <v>2.808604245465202e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>232891906385.4181</v>
+        <v>2.583207532591528e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>114042330736.3448</v>
+        <v>2.156074008179316e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>116151785892.3988</v>
+        <v>1.645839101356313e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>81398077227.12608</v>
+        <v>1.492775987880265e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>69480347470.57449</v>
+        <v>1.276636955491634e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>44114876343.1843</v>
+        <v>1.207892938919424e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>49725926220.12559</v>
+        <v>1.21348256067914e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>104449454894.1678</v>
+        <v>1.198613301034684e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>67604506173.41576</v>
+        <v>1.149647090987929e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>29581144251.34811</v>
+        <v>1.155004252874308e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>25080073123.61285</v>
+        <v>1.164474854991937e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>22063674780.97319</v>
+        <v>1.285692942642427e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>26912894858.06851</v>
+        <v>1.398247198917332e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>47011936361.46512</v>
+        <v>1.461828916954121e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>107632436581.1378</v>
+        <v>1.471747691500427e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>119949075378.7516</v>
+        <v>1.428122605160794e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>137413387837.9527</v>
+        <v>1.34513637827495e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>140473492032.2432</v>
+        <v>1.14926251783972e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>123670610769.6373</v>
+        <v>7.087440422695231e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>106764708026.0291</v>
+        <v>5.918860002914106e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>78504615193.83556</v>
+        <v>4.750868336595024e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>70403114184.39021</v>
+        <v>3.617954390669962e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>65973802752.47809</v>
+        <v>3.38028278957346e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>65502694349.925</v>
+        <v>3.29814482149442e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>63662776804.27482</v>
+        <v>3.358516866026928e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>62673019996.9542</v>
+        <v>3.180271194487231e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>70294270916.46329</v>
+        <v>3.170866818969653e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>91190555977.20209</v>
+        <v>3.193328593627784e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>142047470549.3764</v>
+        <v>3.152081099041337e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>212693729105.8789</v>
+        <v>3.078455337858014e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>275197535954.2867</v>
+        <v>2.989528520218775e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>358560431642.2328</v>
+        <v>2.940744891916514e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>441284173579.9944</v>
+        <v>2.750872141169889e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>472974037237.6387</v>
+        <v>2.764190820094264e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>580694738883.6655</v>
+        <v>2.810489090004131e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>698177097306.8661</v>
+        <v>2.765303603953343e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>700485924110.6057</v>
+        <v>2.419953582186859e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>774995947486.2822</v>
+        <v>2.113422586035235e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>783842348364.2273</v>
+        <v>1.975736043715004e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>773848164844.0759</v>
+        <v>1.914791480746997e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>756193822602.0458</v>
+        <v>2.379131243921027e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>753305776026.4177</v>
+        <v>4.041496441381135e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>711970117821.9824</v>
+        <v>4.86038179260469e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>691091080335.7454</v>
+        <v>5.159130816971707e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>556577715030.9595</v>
+        <v>5.212035365390521e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>510337629130.8293</v>
+        <v>5.342319106712974e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>425676356982.8638</v>
+        <v>5.353761001140582e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>323858160153.3287</v>
+        <v>5.100694441784152e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>292569834442.4172</v>
+        <v>4.693266152913109e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>249403279183.7142</v>
+        <v>2.900981433016712e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>235802631014.9722</v>
+        <v>1.836681025588083e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>236505090439.8461</v>
+        <v>1.63744689704775e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>233463502087.7335</v>
+        <v>1.799544502188785e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>223899633824.5213</v>
+        <v>2.498235996297765e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>224437453387.6106</v>
+        <v>2.7559427205645e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>225312776382.8836</v>
+        <v>4.094125988315408e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>250666828508.7705</v>
+        <v>5.350549666837099e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>271297020271.7585</v>
+        <v>5.560160142399223e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>283618869881.5864</v>
+        <v>5.274785517975118e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>284670964914.0684</v>
+        <v>4.682764697254135e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>276955233103.7697</v>
+        <v>4.13478304610765e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>260472546360.8269</v>
+        <v>3.495506208995019e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>221501992305.5362</v>
+        <v>3.214335942051952e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>135653047508.3928</v>
+        <v>3.194063203418328e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>112965493267.6056</v>
+        <v>3.048722680928634e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>89808591064.61519</v>
+        <v>3.031781538839122e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>68009321242.23465</v>
+        <v>2.916818770396261e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>62988588737.08748</v>
+        <v>3.188862228776695e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>61273364006.83665</v>
+        <v>3.642896718072572e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>62427698756.94528</v>
+        <v>4.072155865192045e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>59229332371.53128</v>
+        <v>4.567275094963452e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>59064908268.15478</v>
+        <v>5.229847077576602e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>59098165582.33377</v>
+        <v>5.726454360809462e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>58806500939.56414</v>
+        <v>5.565102264283689e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>57572023378.45418</v>
+        <v>4.997423845887709e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>56080590144.09398</v>
+        <v>4.912125588644692e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>55939221835.51527</v>
+        <v>4.346363910385053e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>50454075376.98595</v>
+        <v>4.161735697623538e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>50910355568.6124</v>
+        <v>4.059362772701587e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>51326530016.87724</v>
+        <v>5.103180659222335e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>50703078333.49987</v>
+        <v>4.474359223666399e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>44340533815.94331</v>
+        <v>4.688462020072552e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>38347628828.58015</v>
+        <v>4.256518120367366e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>35823123091.42191</v>
+        <v>3.986176643426456e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>34836864700.10063</v>
+        <v>3.784201443567402e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>42779964542.29092</v>
+        <v>3.499701865690413e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>74060080312.2112</v>
+        <v>3.267521450410978e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>89745892124.40849</v>
+        <v>3.332151580865988e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>95005091935.25822</v>
+        <v>1.721432633087833e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>96276582037.87628</v>
+        <v>7.108322154796524e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>97753511729.91971</v>
+        <v>4.284642174431389e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>98393917446.35406</v>
+        <v>6.168357183846495e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>93850571065.66438</v>
+        <v>3.841345793069961e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>85952538064.95496</v>
+        <v>3.074499452915785e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>52712899036.78031</v>
+        <v>2.57951095871457e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>32939533864.59526</v>
+        <v>2.599752194028207e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>28824144289.37368</v>
+        <v>3.78308129389229e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>31977246369.28562</v>
+        <v>6.875977362396432e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>44095597742.2452</v>
+        <v>7.572348513265799e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>48640609886.03001</v>
+        <v>6.497416077601487e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>72791975463.17711</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>95854505474.85622</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>98161398891.09686</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>93609780104.98596</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>83537963199.76138</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>82918015026.65334</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>73587935612.12198</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>61970606015.18727</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>56375874964.33156</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>55418757490.20404</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>54144842966.69375</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>53320171622.0001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>49883572382.15981</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>55317523354.82131</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>63278956708.52769</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>71046135159.74606</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>79519290815.90012</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>91459839450.2811</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>102488327853.3459</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>97689750829.85255</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>97497260448.64827</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>87030536337.08554</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>85446598605.57495</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>75388226293.94931</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>72084533877.98448</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>70221493538.29053</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>88772039385.65994</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>77329055858.33972</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>81059588933.81554</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>73481552905.20966</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>68699391339.37943</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>64962076328.34392</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>60734999130.72591</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>56060843021.925</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>56776776068.36055</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>28953734581.33264</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>11815865765.79756</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>7286352768.423459</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>10287880917.16978</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6389589011.373932</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5165115862.701073</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>4358336177.489202</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4418576292.522637</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6212681503.16912</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>11345057084.73098</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>12432138975.77111</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>10677178675.54107</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>9445173642.337234</v>
+        <v>5.761017461582544e-08</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints5.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>9.073843620243102e-08</v>
+        <v>4.748112077463057e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.127774502455092e-07</v>
+        <v>6.99584971748577e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.629605093490317e-07</v>
+        <v>1.162835902682688e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.353588672026179e-07</v>
+        <v>1.944208848746925e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.175320320503661e-07</v>
+        <v>2.852372611718434e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>6.40321272862968e-07</v>
+        <v>5.87275709536626e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.068688636338477e-06</v>
+        <v>1.037064687822423e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2.859350192885649e-06</v>
+        <v>2.791656321657791e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>4.572058700699385e-06</v>
+        <v>4.476322664394482e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>4.980387971345341e-06</v>
+        <v>4.943289880537238e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>3.94741089801736e-06</v>
+        <v>3.895809981286974e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.016096690128323e-06</v>
+        <v>1.996551315642095e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.552088260335602e-06</v>
+        <v>1.506384454289836e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.957731077572197e-06</v>
+        <v>1.933099938149834e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>8.731602010120857e-07</v>
+        <v>8.334266144970779e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>6.171952098212606e-07</v>
+        <v>5.897852910750564e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.585543209573453e-07</v>
+        <v>3.101739409775388e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.924354763785847e-07</v>
+        <v>1.556263500822467e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468213103652683e-07</v>
+        <v>1.17942373193599e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.45847743241046e-07</v>
+        <v>1.107883885691021e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.78241903893095e-07</v>
+        <v>1.515076905365938e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.223433140043855e-07</v>
+        <v>2.109237006788963e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.131512856467827e-07</v>
+        <v>1.794659504946571e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>4.365387907601874e-07</v>
+        <v>3.786502228838485e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>6.756920593937733e-07</v>
+        <v>5.984974215781221e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.549745379594318e-06</v>
+        <v>1.535344899926119e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3.877825984362763e-06</v>
+        <v>3.854661517660574e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.779171288402804e-06</v>
+        <v>3.730879075606746e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.987087995782735e-06</v>
+        <v>1.975034046315644e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.039155889682173e-06</v>
+        <v>1.002658470075382e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.164496639175327e-07</v>
+        <v>4.94250773743852e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.196209532680193e-07</v>
+        <v>4.944576487244122e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.52073621147321e-07</v>
+        <v>3.619596167580588e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.237339868438181e-07</v>
+        <v>2.483746875602366e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.934817834772086e-07</v>
+        <v>1.898432942962514e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.316157220089263e-07</v>
+        <v>2.241470817609045e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.860760977352789e-07</v>
+        <v>4.779807783453311e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.155074065391447e-07</v>
+        <v>3.100916233380308e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.396176138297411e-07</v>
+        <v>1.280039103903047e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.233698544023379e-07</v>
+        <v>1.081508390595897e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.073166195590359e-07</v>
+        <v>9.976392172909944e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.272312140325559e-07</v>
+        <v>1.163139678472495e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.288200373287016e-07</v>
+        <v>2.24459864257227e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>5.131636388377139e-07</v>
+        <v>5.059295852433975e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>5.739625054584064e-07</v>
+        <v>5.659469238284386e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>6.593586819345292e-07</v>
+        <v>6.592840315573471e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>6.706822856323253e-07</v>
+        <v>6.678417135548273e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>5.874107043468974e-07</v>
+        <v>5.794738850942015e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>5.165066697191281e-07</v>
+        <v>5.083150268905898e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3.841462311912637e-07</v>
+        <v>3.861987804589042e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>3.498321242309637e-07</v>
+        <v>3.465911900934539e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.24565744900581e-07</v>
+        <v>3.2816802976365e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.224093227345935e-07</v>
+        <v>3.172222162480755e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.128970007873454e-07</v>
+        <v>3.000488654585491e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.0824574401446e-07</v>
+        <v>2.966581416536009e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>3.476992270652989e-07</v>
+        <v>3.426567492111413e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>4.540609084735808e-07</v>
+        <v>4.476858633565518e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>7.082092943428151e-07</v>
+        <v>7.084219337185124e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.047150169247417e-06</v>
+        <v>1.052604235663136e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.36388189047721e-06</v>
+        <v>1.369531358551397e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.777624124370649e-06</v>
+        <v>1.782188914824555e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.187624707470044e-06</v>
+        <v>2.19773630143046e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.344728577201943e-06</v>
+        <v>2.348708822308518e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.887571203525774e-06</v>
+        <v>2.890377688180294e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3.473840555630577e-06</v>
+        <v>3.492251506738368e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>3.495618425035636e-06</v>
+        <v>3.506445028385275e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>3.866624603241221e-06</v>
+        <v>3.909847675232027e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3.92041281182273e-06</v>
+        <v>3.930169988656835e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>3.877447230463429e-06</v>
+        <v>3.903947082990985e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.79084552382932e-06</v>
+        <v>3.808345943572127e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>3.77414177494157e-06</v>
+        <v>3.780961922820103e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>3.568034515025513e-06</v>
+        <v>3.603568686218643e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>3.472534032965621e-06</v>
+        <v>3.485804742659622e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.808604245465202e-06</v>
+        <v>2.832530195243464e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2.583207532591528e-06</v>
+        <v>2.584045680143123e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.156074008179316e-06</v>
+        <v>2.163108998952504e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.645839101356313e-06</v>
+        <v>1.656032313983988e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.492775987880265e-06</v>
+        <v>1.500309283406044e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.276636955491634e-06</v>
+        <v>1.279508094473688e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.207892938919424e-06</v>
+        <v>1.213188384385417e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21348256067914e-06</v>
+        <v>1.216550585470447e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.198613301034684e-06</v>
+        <v>1.202506793715117e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.149647090987929e-06</v>
+        <v>1.152190485254983e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.155004252874308e-06</v>
+        <v>1.156581801272692e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.164474854991937e-06</v>
+        <v>1.165323259672605e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.285692942642427e-06</v>
+        <v>1.290745291518895e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.398247198917332e-06</v>
+        <v>1.398385311931988e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.461828916954121e-06</v>
+        <v>1.461016845883761e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.471747691500427e-06</v>
+        <v>1.472329097228825e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.428122605160794e-06</v>
+        <v>1.432602952141682e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.34513637827495e-06</v>
+        <v>1.344213993461682e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.14926251783972e-06</v>
+        <v>1.155219422164177e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>7.087440422695231e-07</v>
+        <v>7.132317801993445e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.918860002914106e-07</v>
+        <v>5.981043072366798e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.750868336595024e-07</v>
+        <v>4.775520362669183e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.617954390669962e-07</v>
+        <v>3.638768978923148e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>3.38028278957346e-07</v>
+        <v>3.385514546770443e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>3.29814482149442e-07</v>
+        <v>3.2992533054102e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>3.358516866026928e-07</v>
+        <v>3.338969404640024e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3.180271194487231e-07</v>
+        <v>3.159018608299759e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3.170866818969653e-07</v>
+        <v>3.173157744543777e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>3.193328593627784e-07</v>
+        <v>3.17023492612628e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>3.152081099041337e-07</v>
+        <v>3.156413995534823e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>3.078455337858014e-07</v>
+        <v>3.106725868521397e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.989528520218775e-07</v>
+        <v>2.976165259522318e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.940744891916514e-07</v>
+        <v>2.935484582011329e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2.750872141169889e-07</v>
+        <v>2.736501058113877e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>2.764190820094264e-07</v>
+        <v>2.740150441566548e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>2.810489090004131e-07</v>
+        <v>2.80684743002696e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>2.765303603953343e-07</v>
+        <v>2.724406568140631e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.419953582186859e-07</v>
+        <v>2.398719357869289e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.113422586035235e-07</v>
+        <v>2.1225716799135e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.975736043715004e-07</v>
+        <v>1.975845362757203e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.914791480746997e-07</v>
+        <v>1.940526441074619e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.379131243921027e-07</v>
+        <v>2.370468504881918e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>4.041496441381135e-07</v>
+        <v>4.023022275857848e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>4.86038179260469e-07</v>
+        <v>4.864651399099602e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>5.159130816971707e-07</v>
+        <v>5.145203138551469e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>5.212035365390521e-07</v>
+        <v>5.20524121842912e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>5.342319106712974e-07</v>
+        <v>5.33760239109589e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.353761001140582e-07</v>
+        <v>5.373773535046579e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>5.100694441784152e-07</v>
+        <v>5.129122465988556e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>4.693266152913109e-07</v>
+        <v>4.723874153677341e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.900981433016712e-07</v>
+        <v>2.906494194598156e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.836681025588083e-07</v>
+        <v>1.852138909086909e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63744689704775e-07</v>
+        <v>1.638282881026456e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.799544502188785e-07</v>
+        <v>1.814272304159961e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>2.498235996297765e-07</v>
+        <v>2.49877714507545e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>2.7559427205645e-07</v>
+        <v>2.749952779675909e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.094125988315408e-07</v>
+        <v>4.073812716625563e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.350549666837099e-07</v>
+        <v>5.43858104486754e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.560160142399223e-07</v>
+        <v>5.568367092693767e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>5.274785517975118e-07</v>
+        <v>5.281166803816827e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>4.682764697254135e-07</v>
+        <v>4.677216479498455e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.13478304610765e-07</v>
+        <v>4.118151421827017e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>3.495506208995019e-07</v>
+        <v>3.546247072069287e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.214335942051952e-07</v>
+        <v>3.187227213568692e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>3.194063203418328e-07</v>
+        <v>3.131103627822039e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3.048722680928634e-07</v>
+        <v>2.802956783392878e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.031781538839122e-07</v>
+        <v>3.01216787910803e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.916818770396261e-07</v>
+        <v>2.925927633931357e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3.188862228776695e-07</v>
+        <v>3.074273586225011e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.642896718072572e-07</v>
+        <v>3.607256931089441e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.072155865192045e-07</v>
+        <v>4.053517223590763e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.567275094963452e-07</v>
+        <v>4.547631988979145e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>5.229847077576602e-07</v>
+        <v>5.218248378195278e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>5.726454360809462e-07</v>
+        <v>5.736185636436418e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>5.565102264283689e-07</v>
+        <v>5.550023710690772e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>4.997423845887709e-07</v>
+        <v>5.013258119895656e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4.912125588644692e-07</v>
+        <v>4.932700074891384e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4.346363910385053e-07</v>
+        <v>4.3764714697064e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.161735697623538e-07</v>
+        <v>4.172625819598835e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.059362772701587e-07</v>
+        <v>4.075511627439476e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>5.103180659222335e-07</v>
+        <v>5.130988825838415e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>4.474359223666399e-07</v>
+        <v>4.484769862118852e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>4.688462020072552e-07</v>
+        <v>4.713412258366946e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.256518120367366e-07</v>
+        <v>4.274159428003711e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.986176643426456e-07</v>
+        <v>4.003652579079985e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3.784201443567402e-07</v>
+        <v>3.787027575253997e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3.499701865690413e-07</v>
+        <v>3.524326901628931e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3.267521450410978e-07</v>
+        <v>3.282247569921313e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>3.332151580865988e-07</v>
+        <v>3.353122958076922e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.721432633087833e-07</v>
+        <v>1.731270452975507e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>7.108322154796524e-08</v>
+        <v>7.319556002373498e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.284642174431389e-08</v>
+        <v>4.377328738190644e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>6.168357183846495e-08</v>
+        <v>6.274018211697936e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.841345793069961e-08</v>
+        <v>3.964558965116807e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.074499452915785e-08</v>
+        <v>3.193488262718524e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.57951095871457e-08</v>
+        <v>2.670482319172289e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.599752194028207e-08</v>
+        <v>2.379534768394918e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.78308129389229e-08</v>
+        <v>3.81247639835777e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>6.875977362396432e-08</v>
+        <v>6.830473457396137e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.572348513265799e-08</v>
+        <v>7.647375330772762e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>6.497416077601487e-08</v>
+        <v>6.605714285416322e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.761017461582544e-08</v>
+        <v>5.878133923371745e-08</v>
       </c>
     </row>
   </sheetData>
